--- a/Assets/Resources/Data/Charactor.xlsx
+++ b/Assets/Resources/Data/Charactor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YDC\Documents\UnityProjects\Metal-Max\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Metal-Max\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,37 +24,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>initHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initShootingRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initEscapeRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shootingRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>escapeRate</t>
+    <t>nameString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/CharBattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,46 +409,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -448,6 +485,15 @@
       </c>
       <c r="H2">
         <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Charactor.xlsx
+++ b/Assets/Resources/Data/Charactor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -472,16 +472,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>5</v>
